--- a/wwwroot/Templates/NhanVienBaoCao.xlsx
+++ b/wwwroot/Templates/NhanVienBaoCao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Danh sách nhân viên</t>
   </si>
@@ -40,31 +40,43 @@
     <t>Phòng ban</t>
   </si>
   <si>
-    <t>NGuyễn quốc tấn</t>
+    <t>Nguyễn văn điệp</t>
   </si>
   <si>
     <t>01-01-2000</t>
   </si>
   <si>
-    <t>039 836 162</t>
-  </si>
-  <si>
-    <t>Quản lý</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Nguyễn thế dân</t>
-  </si>
-  <si>
-    <t>14-01-1999</t>
-  </si>
-  <si>
-    <t>035 553 817</t>
-  </si>
-  <si>
-    <t>Nhan Viên</t>
+    <t/>
+  </si>
+  <si>
+    <t>Giám đốc</t>
+  </si>
+  <si>
+    <t>Lê duy Đại</t>
+  </si>
+  <si>
+    <t>02-02-2003</t>
+  </si>
+  <si>
+    <t>037 614 942</t>
+  </si>
+  <si>
+    <t>Nhân Viên</t>
+  </si>
+  <si>
+    <t>Hảo Nam</t>
+  </si>
+  <si>
+    <t>20-09-2000</t>
+  </si>
+  <si>
+    <t>432432</t>
+  </si>
+  <si>
+    <t>Đỗ đức Sang</t>
+  </si>
+  <si>
+    <t>06-06-2000</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                                                                    ....................., Ngày .... tháng .... năm 202...
@@ -1522,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -1534,10 +1546,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -1545,41 +1557,69 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2"/>
@@ -1592,7 +1632,7 @@
     </row>
     <row r="8">
       <c r="E8" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>

--- a/wwwroot/Templates/NhanVienBaoCao.xlsx
+++ b/wwwroot/Templates/NhanVienBaoCao.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Danh sách nhân viên</t>
   </si>
@@ -43,156 +43,48 @@
     <t>Phòng ban</t>
   </si>
   <si>
-    <t>nguyen duy thanh</t>
-  </si>
-  <si>
-    <t>543543</t>
-  </si>
-  <si>
-    <t>trterterter</t>
-  </si>
-  <si>
-    <t>Kế toán</t>
-  </si>
-  <si>
-    <t>Hảo Nam</t>
-  </si>
-  <si>
-    <t>04354305</t>
-  </si>
-  <si>
-    <t>Nhân Viên</t>
-  </si>
-  <si>
-    <t>Giám đốc</t>
-  </si>
-  <si>
-    <t>Đỗ Hoài nam</t>
-  </si>
-  <si>
-    <t>eterwterw</t>
-  </si>
-  <si>
-    <t>dffFd</t>
+    <t>Phùng Đại Đồng</t>
+  </si>
+  <si>
+    <t>14-11-2003</t>
+  </si>
+  <si>
+    <t>0368728267</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>phùng cường</t>
+  </si>
+  <si>
+    <t>01-01-2000</t>
+  </si>
+  <si>
+    <t>09876543321</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>phùng tiến bách</t>
+  </si>
+  <si>
+    <t>01-01-1111</t>
+  </si>
+  <si>
+    <t>098734764</t>
+  </si>
+  <si>
+    <t>Quản lý</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                                                           ....................., Ngày .... tháng .... năm 202...
 Người thực hiện
 (Kí, ghi rõ họ tên)</t>
-  </si>
-  <si>
-    <t>343ewerwer</t>
-  </si>
-  <si>
-    <t>321131</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>erwerew</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Nguyễn văn điệp</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>Lê thị hà</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Trần Đặng Lê</t>
-  </si>
-  <si>
-    <t>Dương khánh Trà</t>
-  </si>
-  <si>
-    <t>Nguyễn thế dân</t>
-  </si>
-  <si>
-    <t>035 553 817</t>
-  </si>
-  <si>
-    <t>Nhan Viên</t>
-  </si>
-  <si>
-    <t>phùng cường</t>
-  </si>
-  <si>
-    <t>09876543321</t>
-  </si>
-  <si>
-    <t>CEO</t>
-  </si>
-  <si>
-    <t>Đỗ đức Sang</t>
-  </si>
-  <si>
-    <t>Lê duy Lai</t>
-  </si>
-  <si>
-    <t>32432432450</t>
-  </si>
-  <si>
-    <t>nhan Vien</t>
-  </si>
-  <si>
-    <t>ffddsfssd</t>
-  </si>
-  <si>
-    <t>dfdsfdsfs</t>
-  </si>
-  <si>
-    <t>Đại Nam</t>
-  </si>
-  <si>
-    <t>098776656</t>
-  </si>
-  <si>
-    <t>Quản Lý</t>
-  </si>
-  <si>
-    <t>ffff</t>
-  </si>
-  <si>
-    <t>dddd</t>
-  </si>
-  <si>
-    <t>0987645342</t>
-  </si>
-  <si>
-    <t>Nguyễn bỉnh Khiêm</t>
-  </si>
-  <si>
-    <t>Phùng Đại Đồng</t>
-  </si>
-  <si>
-    <t>0368728267</t>
-  </si>
-  <si>
-    <t>Nhân viên</t>
-  </si>
-  <si>
-    <t>test22</t>
-  </si>
-  <si>
-    <t>nguyễn ngoc lam</t>
-  </si>
-  <si>
-    <t>243432432</t>
-  </si>
-  <si>
-    <t>Nguyễn thị Như</t>
-  </si>
-  <si>
-    <t>0987634342</t>
   </si>
 </sst>
 </file>
@@ -241,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -299,6 +191,15 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -316,7 +217,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -342,9 +243,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1079,17 +986,17 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
-        <v>36526</v>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -1097,19 +1004,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="2">
-        <v>36789</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -1117,50 +1024,38 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2">
-        <v>36526</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2">
-        <v>36526</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2">
-        <v>36526</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>18</v>
+      <c r="F7" s="2"/>
+      <c r="G7" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1168,63 +1063,39 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2">
-        <v>36526</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="9"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2">
-        <v>36526</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="9"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2">
-        <v>36526</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="9"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1232,21 +1103,13 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2">
-        <v>36526</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="9"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1254,25 +1117,13 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2">
-        <v>36526</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="9"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1280,21 +1131,13 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2">
-        <v>36924</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="9"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1302,21 +1145,13 @@
       <c r="L13" s="7"/>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2">
-        <v>36892</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="9"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1324,21 +1159,13 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2">
-        <v>37683</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="9"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1346,307 +1173,89 @@
       <c r="L15" s="7"/>
     </row>
     <row r="16">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2">
-        <v>37286</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="F16" s="2"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
     <row r="17">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2">
-        <v>36174</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
     <row r="18">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="2">
-        <v>36526</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
     <row r="19">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="2">
-        <v>36683</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
     <row r="20">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="2">
-        <v>25630</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2">
-        <v>37047</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="2">
-        <v>36557</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="2">
-        <v>36810</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="2">
-        <v>37653</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="2">
-        <v>36526</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="2">
-        <v>36841</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="2">
-        <v>36596</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="2">
-        <v>37939</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="2">
-        <v>36526</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="2">
-        <v>36841</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="2">
-        <v>36740</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/wwwroot/Templates/NhanVienBaoCao.xlsx
+++ b/wwwroot/Templates/NhanVienBaoCao.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Danh sách nhân viên</t>
   </si>
@@ -58,28 +58,40 @@
     <t>IT</t>
   </si>
   <si>
-    <t>phùng cường</t>
-  </si>
-  <si>
-    <t>01-01-2000</t>
-  </si>
-  <si>
-    <t>09876543321</t>
-  </si>
-  <si>
-    <t>CEO</t>
-  </si>
-  <si>
-    <t>phùng tiến bách</t>
-  </si>
-  <si>
-    <t>01-01-1111</t>
-  </si>
-  <si>
-    <t>098734764</t>
-  </si>
-  <si>
-    <t>Quản lý</t>
+    <t>Đại Nam</t>
+  </si>
+  <si>
+    <t>11-10-2000</t>
+  </si>
+  <si>
+    <t>098776656</t>
+  </si>
+  <si>
+    <t>Quản Lý</t>
+  </si>
+  <si>
+    <t>đỗ đức sang</t>
+  </si>
+  <si>
+    <t>06-06-2000</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Trưởng phòng</t>
+  </si>
+  <si>
+    <t>đại đồng</t>
+  </si>
+  <si>
+    <t>01-01-0022</t>
+  </si>
+  <si>
+    <t>1243243242</t>
+  </si>
+  <si>
+    <t>Vệ sinh</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                                                           ....................., Ngày .... tháng .... năm 202...
@@ -1040,12 +1052,24 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
@@ -1055,7 +1079,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>

--- a/wwwroot/Templates/NhanVienBaoCao.xlsx
+++ b/wwwroot/Templates/NhanVienBaoCao.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Danh sách nhân viên</t>
   </si>
@@ -43,60 +43,72 @@
     <t>Phòng ban</t>
   </si>
   <si>
-    <t>Phùng Đại Đồng</t>
-  </si>
-  <si>
-    <t>14-11-2003</t>
-  </si>
-  <si>
-    <t>0368728267</t>
-  </si>
-  <si>
-    <t>Nhân viên</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Đại Nam</t>
-  </si>
-  <si>
-    <t>11-10-2000</t>
-  </si>
-  <si>
-    <t>098776656</t>
-  </si>
-  <si>
-    <t>Quản Lý</t>
-  </si>
-  <si>
-    <t>đỗ đức sang</t>
-  </si>
-  <si>
-    <t>06-06-2000</t>
+    <t>efdsds</t>
+  </si>
+  <si>
+    <t>11-11-2000</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Trưởng phòng</t>
-  </si>
-  <si>
-    <t>đại đồng</t>
-  </si>
-  <si>
-    <t>01-01-0022</t>
-  </si>
-  <si>
-    <t>1243243242</t>
-  </si>
-  <si>
-    <t>Vệ sinh</t>
+    <t>Nhân Viên</t>
+  </si>
+  <si>
+    <t>Kiểm toán</t>
+  </si>
+  <si>
+    <t>eewqe</t>
+  </si>
+  <si>
+    <t>312fs</t>
+  </si>
+  <si>
+    <t>01-01-1911</t>
+  </si>
+  <si>
+    <t>Hảo Nam</t>
+  </si>
+  <si>
+    <t>20-09-2000</t>
+  </si>
+  <si>
+    <t>04354305</t>
+  </si>
+  <si>
+    <t>Đỗ Hoài nam</t>
+  </si>
+  <si>
+    <t>01-01-2000</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                                                           ....................., Ngày .... tháng .... năm 202...
 Người thực hiện
 (Kí, ghi rõ họ tên)</t>
+  </si>
+  <si>
+    <t>Hồ Xuân Hương</t>
+  </si>
+  <si>
+    <t>eterwterw</t>
+  </si>
+  <si>
+    <t>nguyễn việt anh</t>
+  </si>
+  <si>
+    <t>432432423</t>
+  </si>
+  <si>
+    <t>đại tá nguyễn xuân</t>
+  </si>
+  <si>
+    <t>353477967</t>
+  </si>
+  <si>
+    <t>nguyễn văn điệp</t>
+  </si>
+  <si>
+    <t>12312321</t>
   </si>
 </sst>
 </file>
@@ -1019,13 +1031,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>11</v>
@@ -1036,16 +1048,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>11</v>
@@ -1056,30 +1068,42 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G7" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1087,12 +1111,24 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1100,12 +1136,24 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G9" s="11"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1113,12 +1161,24 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G10" s="11"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1127,12 +1187,24 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1141,12 +1213,24 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G12" s="11"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>

--- a/wwwroot/Templates/NhanVienBaoCao.xlsx
+++ b/wwwroot/Templates/NhanVienBaoCao.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\VietGis_baiTap\BaiTap-phan3\wwwroot\Templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57567FAD-F006-487F-B83D-A02145757770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t>Danh sách nhân viên</t>
   </si>
@@ -37,49 +31,46 @@
     <t>Số điện thoại</t>
   </si>
   <si>
+    <t>Phòng ban</t>
+  </si>
+  <si>
     <t>Chức vụ</t>
   </si>
   <si>
-    <t>Phòng ban</t>
-  </si>
-  <si>
-    <t>efdsds</t>
-  </si>
-  <si>
-    <t>11-11-2000</t>
+    <t>nguyễn việt anhh</t>
+  </si>
+  <si>
+    <t>01-01-2000</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>Kế toán</t>
+  </si>
+  <si>
     <t>Nhân Viên</t>
   </si>
   <si>
-    <t>Kiểm toán</t>
-  </si>
-  <si>
-    <t>eewqe</t>
-  </si>
-  <si>
-    <t>312fs</t>
+    <t>3-000012345</t>
+  </si>
+  <si>
+    <t>11-02-0001</t>
+  </si>
+  <si>
+    <t>343ewerwer</t>
+  </si>
+  <si>
+    <t>Nguyễn Việt Anh</t>
   </si>
   <si>
     <t>01-01-1911</t>
   </si>
   <si>
-    <t>Hảo Nam</t>
-  </si>
-  <si>
-    <t>20-09-2000</t>
-  </si>
-  <si>
-    <t>04354305</t>
-  </si>
-  <si>
-    <t>Đỗ Hoài nam</t>
-  </si>
-  <si>
-    <t>01-01-2000</t>
+    <t>3000000000</t>
+  </si>
+  <si>
+    <t>02-02-2000</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                                                           ....................., Ngày .... tháng .... năm 202...
@@ -87,36 +78,434 @@
 (Kí, ghi rõ họ tên)</t>
   </si>
   <si>
+    <t>Nguyễn bỉnh Khiêm</t>
+  </si>
+  <si>
+    <t>11-03-2000</t>
+  </si>
+  <si>
+    <t>nguyen duy thanh</t>
+  </si>
+  <si>
+    <t>543543000</t>
+  </si>
+  <si>
+    <t>phùng đăng vũ</t>
+  </si>
+  <si>
+    <t>Nguyễn thị Như</t>
+  </si>
+  <si>
+    <t>02-08-2000</t>
+  </si>
+  <si>
+    <t>0987634343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nguyễn việt </t>
+  </si>
+  <si>
+    <t>nguyễn việt anh</t>
+  </si>
+  <si>
+    <t>Phùng Đại Đồng</t>
+  </si>
+  <si>
+    <t>01-01-1912</t>
+  </si>
+  <si>
+    <t>Trần Đặng Lê</t>
+  </si>
+  <si>
+    <t>03-03-2003</t>
+  </si>
+  <si>
+    <t>321131</t>
+  </si>
+  <si>
+    <t>phùng trung kiên</t>
+  </si>
+  <si>
+    <t>01-01-0222</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>Nguyễn Việt An</t>
+  </si>
+  <si>
+    <t>01-01-0200</t>
+  </si>
+  <si>
+    <t>đại nam</t>
+  </si>
+  <si>
+    <t>11-11-2000</t>
+  </si>
+  <si>
+    <t>0987645342</t>
+  </si>
+  <si>
+    <t>Dương khánh Trà</t>
+  </si>
+  <si>
+    <t>30-01-2002</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Giám đốc</t>
+  </si>
+  <si>
+    <t>wqewq</t>
+  </si>
+  <si>
+    <t>11-11-0001</t>
+  </si>
+  <si>
+    <t>Tổ trưởng</t>
+  </si>
+  <si>
+    <t>Lê duy Lai</t>
+  </si>
+  <si>
+    <t>03-03-1970</t>
+  </si>
+  <si>
+    <t>32432432450</t>
+  </si>
+  <si>
+    <t>phùng cường</t>
+  </si>
+  <si>
+    <t>09876543321</t>
+  </si>
+  <si>
+    <t>Nguyễn Việt Thái</t>
+  </si>
+  <si>
+    <t>14-11-2003</t>
+  </si>
+  <si>
+    <t>0368728267</t>
+  </si>
+  <si>
+    <t>Nguyễn thế dân</t>
+  </si>
+  <si>
+    <t>14-01-1999</t>
+  </si>
+  <si>
+    <t>5452345</t>
+  </si>
+  <si>
+    <t>Huỳnh Phương</t>
+  </si>
+  <si>
+    <t>11-11-1999</t>
+  </si>
+  <si>
+    <t>Phung Ngoc Diep</t>
+  </si>
+  <si>
+    <t>01-01-2001</t>
+  </si>
+  <si>
+    <t>dasdas</t>
+  </si>
+  <si>
+    <t>01-02-0011</t>
+  </si>
+  <si>
+    <t>test22 3 55</t>
+  </si>
+  <si>
+    <t>đại đồng</t>
+  </si>
+  <si>
+    <t>01-01-0022</t>
+  </si>
+  <si>
+    <t>1243243242</t>
+  </si>
+  <si>
+    <t>nguyễn ngoc lam</t>
+  </si>
+  <si>
+    <t>243432432</t>
+  </si>
+  <si>
+    <t>đỗ đức sang</t>
+  </si>
+  <si>
+    <t>06-06-2000</t>
+  </si>
+  <si>
+    <t>Lê thị hà</t>
+  </si>
+  <si>
+    <t>02-02-2001</t>
+  </si>
+  <si>
+    <t>phùng tiến bách</t>
+  </si>
+  <si>
+    <t>01-01-1111</t>
+  </si>
+  <si>
+    <t>098734764</t>
+  </si>
+  <si>
+    <t>erwerew</t>
+  </si>
+  <si>
+    <t>dpi dong</t>
+  </si>
+  <si>
+    <t>01-02-2000</t>
+  </si>
+  <si>
+    <t>ffddsfssd</t>
+  </si>
+  <si>
+    <t>05-06-2001</t>
+  </si>
+  <si>
+    <t>dddd</t>
+  </si>
+  <si>
+    <t>Đồng Khánh Linh</t>
+  </si>
+  <si>
+    <t>Kiểm toán</t>
+  </si>
+  <si>
+    <t>sfdsf</t>
+  </si>
+  <si>
+    <t>22-02-0022</t>
+  </si>
+  <si>
+    <t>dsdasd</t>
+  </si>
+  <si>
+    <t>Hảo Nam</t>
+  </si>
+  <si>
+    <t>20-09-2000</t>
+  </si>
+  <si>
+    <t>04354305</t>
+  </si>
+  <si>
     <t>Hồ Xuân Hương</t>
   </si>
   <si>
+    <t>Đỗ Hoài nam</t>
+  </si>
+  <si>
+    <t>ewerw</t>
+  </si>
+  <si>
+    <t>23-02-0022</t>
+  </si>
+  <si>
+    <t>nguyễn văn điệp</t>
+  </si>
+  <si>
+    <t>12312321</t>
+  </si>
+  <si>
+    <t>efdsds</t>
+  </si>
+  <si>
     <t>eterwterw</t>
   </si>
   <si>
-    <t>nguyễn việt anh</t>
-  </si>
-  <si>
     <t>432432423</t>
   </si>
   <si>
-    <t>đại tá nguyễn xuân</t>
-  </si>
-  <si>
-    <t>353477967</t>
-  </si>
-  <si>
-    <t>nguyễn văn điệp</t>
-  </si>
-  <si>
-    <t>12312321</t>
+    <t>eewqe</t>
+  </si>
+  <si>
+    <t>adas</t>
+  </si>
+  <si>
+    <t>Hành chính</t>
+  </si>
+  <si>
+    <t>Trưởng phòng bộ phận</t>
+  </si>
+  <si>
+    <t>dad</t>
+  </si>
+  <si>
+    <t>sfdsfdsf</t>
+  </si>
+  <si>
+    <t>22-02-0333</t>
+  </si>
+  <si>
+    <t>Nguyễn Thái công</t>
+  </si>
+  <si>
+    <t>29-01-1945</t>
+  </si>
+  <si>
+    <t>321323</t>
+  </si>
+  <si>
+    <t>dsdsfdsf</t>
+  </si>
+  <si>
+    <t>11-11-1222</t>
+  </si>
+  <si>
+    <t>werew</t>
+  </si>
+  <si>
+    <t>11-11-0002</t>
+  </si>
+  <si>
+    <t>23324</t>
+  </si>
+  <si>
+    <t>ewqewqe</t>
+  </si>
+  <si>
+    <t>11-11-1200</t>
+  </si>
+  <si>
+    <t>ewqewq</t>
+  </si>
+  <si>
+    <t>23-02-0132</t>
+  </si>
+  <si>
+    <t>12312</t>
+  </si>
+  <si>
+    <t>12-03-0022</t>
+  </si>
+  <si>
+    <t>eweqw</t>
+  </si>
+  <si>
+    <t>2323</t>
+  </si>
+  <si>
+    <t>3123</t>
+  </si>
+  <si>
+    <t>hà nội</t>
+  </si>
+  <si>
+    <t>3423</t>
+  </si>
+  <si>
+    <t>21-12-0212</t>
+  </si>
+  <si>
+    <t>đại tá nguyễn xuân gg</t>
+  </si>
+  <si>
+    <t>01-01-1977</t>
+  </si>
+  <si>
+    <t>353477969</t>
+  </si>
+  <si>
+    <t>w4w4w435</t>
+  </si>
+  <si>
+    <t>11-11-0222</t>
+  </si>
+  <si>
+    <t>31-03-0001</t>
+  </si>
+  <si>
+    <t>ads</t>
+  </si>
+  <si>
+    <t>dâs</t>
+  </si>
+  <si>
+    <t>sfsdsfd</t>
+  </si>
+  <si>
+    <t>21-02-0022</t>
+  </si>
+  <si>
+    <t>fesfsfsf</t>
+  </si>
+  <si>
+    <t>11-11-0011</t>
+  </si>
+  <si>
+    <t>qweqe</t>
+  </si>
+  <si>
+    <t>dfsd</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>phùng Đại Đồng</t>
+  </si>
+  <si>
+    <t>asdsa</t>
+  </si>
+  <si>
+    <t>01-11-0001</t>
+  </si>
+  <si>
+    <t>ddsdas</t>
+  </si>
+  <si>
+    <t>dawdad</t>
+  </si>
+  <si>
+    <t>22-02-0222</t>
+  </si>
+  <si>
+    <t>dasd</t>
+  </si>
+  <si>
+    <t>đặng thị như</t>
+  </si>
+  <si>
+    <t>02-02-0333</t>
+  </si>
+  <si>
+    <t>hoa thoi</t>
+  </si>
+  <si>
+    <t>32432</t>
+  </si>
+  <si>
+    <t>qewwq</t>
+  </si>
+  <si>
+    <t>rewrew</t>
+  </si>
+  <si>
+    <t>13-12-0022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,8 +519,152 @@
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,7 +679,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -156,28 +689,199 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -218,12 +922,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -235,202 +945,369 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" applyNumberFormat="1" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="2" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="3" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="0" applyFont="0" fillId="5" applyFill="1" borderId="6" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="4" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="5" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="6" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="7" applyFont="1" fillId="0" applyFill="0" borderId="7" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="8" applyFont="1" fillId="0" applyFill="0" borderId="7" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="9" applyFont="1" fillId="0" applyFill="0" borderId="8" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="9" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="10" applyFont="1" fillId="6" applyFill="1" borderId="9" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="11" applyFont="1" fillId="7" applyFill="1" borderId="10" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="12" applyFont="1" fillId="7" applyFill="1" borderId="9" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="13" applyFont="1" fillId="8" applyFill="1" borderId="11" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="14" applyFont="1" fillId="0" applyFill="0" borderId="12" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="15" applyFont="1" fillId="0" applyFill="0" borderId="13" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="16" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="17" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="18" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="33" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="34" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="35" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="34">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -441,7 +1318,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -469,8 +1346,125 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -491,7 +1485,7 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.3999450666829432"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
       </border>
     </dxf>
@@ -533,16 +1527,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.7999511703848384"/>
-          <bgColor theme="4" tint="0.7999511703848384"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.7999511703848384"/>
-          <bgColor theme="4" tint="0.7999511703848384"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
@@ -553,13 +1547,13 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.7999511703848384"/>
-          <bgColor theme="4" tint="0.7999511703848384"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
       <border>
         <bottom style="thin">
-          <color theme="4" tint="0.3999450666829432"/>
+          <color theme="4" tint="0.399975585192419"/>
         </bottom>
       </border>
     </dxf>
@@ -570,32 +1564,32 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.7999511703848384"/>
-          <bgColor theme="4" tint="0.7999511703848384"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
       <border>
         <top style="thin">
-          <color theme="4" tint="0.3999450666829432"/>
+          <color theme="4" tint="0.399975585192419"/>
         </top>
         <bottom style="thin">
-          <color theme="4" tint="0.3999450666829432"/>
+          <color theme="4" tint="0.399975585192419"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.7999511703848384"/>
-          <bgColor theme="4" tint="0.7999511703848384"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.7999511703848384"/>
-          <bgColor theme="4" tint="0.7999511703848384"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
@@ -625,7 +1619,7 @@
       </font>
       <border>
         <bottom style="thin">
-          <color theme="4" tint="0.3999450666829432"/>
+          <color theme="4" tint="0.399975585192419"/>
         </bottom>
       </border>
     </dxf>
@@ -640,26 +1634,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.7999511703848384"/>
-          <bgColor theme="4" tint="0.7999511703848384"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
       <border>
         <bottom style="thin">
-          <color theme="4" tint="0.3999450666829432"/>
+          <color theme="4" tint="0.399975585192419"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.7999511703848384"/>
-          <bgColor theme="4" tint="0.7999511703848384"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
       <border>
         <bottom style="thin">
-          <color theme="4" tint="0.3999450666829432"/>
+          <color theme="4" tint="0.399975585192419"/>
         </bottom>
       </border>
     </dxf>
@@ -690,9 +1684,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -950,420 +1941,1888 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="23.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="24.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="22.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="25.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="14.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="F16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="B19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="F19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="B21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="F21" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
+      <c r="D27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18">
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19">
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20">
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21">
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22">
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23">
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24">
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25">
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26">
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27">
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28">
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29">
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30">
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31">
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32">
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="D33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4">
+        <v>49</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4">
+        <v>51</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4">
+        <v>53</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4">
+        <v>54</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4">
+        <v>55</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4">
+        <v>56</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4">
+        <v>57</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4">
+        <v>58</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4">
+        <v>59</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4">
+        <v>60</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4">
+        <v>61</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4">
+        <v>62</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4">
+        <v>63</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4">
+        <v>64</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4">
+        <v>65</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4">
+        <v>66</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4">
+        <v>67</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4">
+        <v>68</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4">
+        <v>69</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4">
+        <v>70</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4">
+        <v>71</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4">
+        <v>72</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="4">
+        <v>73</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4">
+        <v>74</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="4">
+        <v>75</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4">
+        <v>76</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4">
+        <v>77</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4">
+        <v>78</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="4">
+        <v>79</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4">
+        <v>80</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4">
+        <v>81</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4">
+        <v>82</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4">
+        <v>83</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4">
+        <v>84</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="4">
+        <v>85</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4">
+        <v>86</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4">
+        <v>87</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4">
+        <v>88</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
     </row>
   </sheetData>
   <mergeCells>
